--- a/Win32-64 OpenAXIMOC-GUI/export1.xlsx
+++ b/Win32-64 OpenAXIMOC-GUI/export1.xlsx
@@ -13,10 +13,6 @@
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -356,7 +352,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
